--- a/biology/Botanique/Jardin_botanique_de_Pise/Jardin_botanique_de_Pise.xlsx
+++ b/biology/Botanique/Jardin_botanique_de_Pise/Jardin_botanique_de_Pise.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le jardin botanique de Pise est une structure didactico-scientifique du département de botanique de l'université de Pise.
 </t>
@@ -511,7 +523,9 @@
           <t>Aperçu historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le jardin botanique de l'université de Pise fut créé en 1544 sur l'initiative de Luca Ghini, médecin et botaniste d'Imola, avec le soutien financier du grand-duc de Toscane, Cosme Ier de Médicis. 
 C'est le plus ancien jardin botanique du monde, même si sa localisation originale était différente de l'emplacement actuel : le jardin primitif se trouvait en effet près de l'arsenal des Médicis, et s'appelait justement Jardin de l'Arsenal.
@@ -550,18 +564,198 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Arboretum
-Dans ce secteur, qui reflète encore de nos jours le schéma d'implantation défini au XIXe siècle par les préfets Gaetano Savi et Teodoro Caruel, se trouvent des arbres appartenant aux groupes des conifère et des amentifères.  Les deux exemplaires les plus anciens du jardin sont un Magnolia grandiflora  et un Ginkgo biloba, plantés en 1787 par le préfet Giorgio Santi. Ils se trouvent en réalité en dehors de ce secteur, dans le jardin nommé « jardin du cèdre ».
-Collection systématique
-Elle  comprend environ 45 plates-bandes dans lesquelles sont représentées  550 espèces appartenant à 39 familles, disposées selon des critères didactico-systématiques.
-Flore officinale
-Ce secteur, appelé « jardin du myrte » (Orto del Mirto) du fait de la présence d'un très ancien exemplaire de Myrtus communis, accueille environ 140 espèces de plantes officinales, dont certaines sont encore reprises dans la pharmacopée officielle comme le ricin (Ricinus communis), la digitale (Digitalis purpurea).
-Plantes aquatiques
-Il s'agit d'une collection d'espèces essentiellement autochtones : certaines d'entre elles comme le caltha des marais (Caltha palustris) sont presque éteintes dans la nature, tandis que d'autres, comme l'hibiscus palustre (Hibiscus palustris) et le nénufar jaune (Nuphar lutea) sont fortement menacées par la pollution des eaux et l'assainissement des zones humides.
-Géophytes méditerranéens
-C'est une collection qui comprend des espèces herbacées du bassin de la mer  Méditerranée appartenant surtout aux genres Allium, Ornithogalum et Muscari.
-Succulentes
-C'est une collection abritée dans une grande serre qui comprend des  Cactaceae, des Euphorbiaceae, des Crassulaceae ainsi que des exemplaires des genres Aloe et Agave,  disposées sur la base de critères systématiques et géographiques.
+          <t>Arboretum</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans ce secteur, qui reflète encore de nos jours le schéma d'implantation défini au XIXe siècle par les préfets Gaetano Savi et Teodoro Caruel, se trouvent des arbres appartenant aux groupes des conifère et des amentifères.  Les deux exemplaires les plus anciens du jardin sont un Magnolia grandiflora  et un Ginkgo biloba, plantés en 1787 par le préfet Giorgio Santi. Ils se trouvent en réalité en dehors de ce secteur, dans le jardin nommé « jardin du cèdre ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Jardin_botanique_de_Pise</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jardin_botanique_de_Pise</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Collections</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Collection systématique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle  comprend environ 45 plates-bandes dans lesquelles sont représentées  550 espèces appartenant à 39 familles, disposées selon des critères didactico-systématiques.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Jardin_botanique_de_Pise</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jardin_botanique_de_Pise</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Collections</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Flore officinale</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce secteur, appelé « jardin du myrte » (Orto del Mirto) du fait de la présence d'un très ancien exemplaire de Myrtus communis, accueille environ 140 espèces de plantes officinales, dont certaines sont encore reprises dans la pharmacopée officielle comme le ricin (Ricinus communis), la digitale (Digitalis purpurea).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Jardin_botanique_de_Pise</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jardin_botanique_de_Pise</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Collections</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Plantes aquatiques</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agit d'une collection d'espèces essentiellement autochtones : certaines d'entre elles comme le caltha des marais (Caltha palustris) sont presque éteintes dans la nature, tandis que d'autres, comme l'hibiscus palustre (Hibiscus palustris) et le nénufar jaune (Nuphar lutea) sont fortement menacées par la pollution des eaux et l'assainissement des zones humides.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Jardin_botanique_de_Pise</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jardin_botanique_de_Pise</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Collections</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Géophytes méditerranéens</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une collection qui comprend des espèces herbacées du bassin de la mer  Méditerranée appartenant surtout aux genres Allium, Ornithogalum et Muscari.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Jardin_botanique_de_Pise</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jardin_botanique_de_Pise</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Collections</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Succulentes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une collection abritée dans une grande serre qui comprend des  Cactaceae, des Euphorbiaceae, des Crassulaceae ainsi que des exemplaires des genres Aloe et Agave,  disposées sur la base de critères systématiques et géographiques.
 </t>
         </is>
       </c>
